--- a/modelagem/Resultados_2018 1ª abordagem/3. Março/resultados.xlsx
+++ b/modelagem/Resultados_2018 1ª abordagem/3. Março/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,887 +436,720 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Modelo Individual Treino</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>ativos</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Modelo Individual Teste</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo por grupos Teste</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo com a Média Teste</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0.1419427617672459</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>ABEV3</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.4371508703110541</v>
-      </c>
       <c r="C2" t="n">
-        <v>0.5877517499749009</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5411197755515498</v>
+        <v>0.09230237885553665</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>0.2048083931003256</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>B3SA3</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1.705145911261296</v>
-      </c>
       <c r="C3" t="n">
-        <v>1.200536363075125</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.320145693393717</v>
+        <v>0.2013547379323931</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>0.2883308952301582</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>BBAS3</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>3679.557793145397</v>
-      </c>
       <c r="C4" t="n">
-        <v>16728.72235349732</v>
-      </c>
-      <c r="D4" t="n">
-        <v>628.0657881409724</v>
+        <v>0.2180141198012144</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>0.2243259526768105</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>BBDC3</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>6.73754831773507</v>
-      </c>
       <c r="C5" t="n">
-        <v>12.70991484210844</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.36428666869835</v>
+        <v>0.2020184380889029</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>0.1879510504029522</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>BBDC4</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.8673836265462102</v>
-      </c>
       <c r="C6" t="n">
-        <v>0.7473933013613716</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8730679645113387</v>
+        <v>0.2272890841394045</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>0.16199046110162</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>BEEF3</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>6.905615994713893</v>
-      </c>
       <c r="C7" t="n">
-        <v>2.493091088741971</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.607003638028057</v>
+        <v>0.1186839275623799</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>0.05382389186070458</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>BRAP4</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.7396742822372084</v>
-      </c>
       <c r="C8" t="n">
-        <v>0.5459291613168551</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6501719058056905</v>
+        <v>0.1034954277525064</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>0.2468992999432295</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>BRFS3</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2.990625733423488</v>
-      </c>
       <c r="C9" t="n">
-        <v>2.511033700126617</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.094122490508606</v>
+        <v>0.07717166689932994</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>0.1278300197977891</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>BRKM5</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.6990944598938017</v>
-      </c>
       <c r="C10" t="n">
-        <v>0.8937850801237758</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.7770441253593774</v>
+        <v>0.1239832986647474</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>0.1669342387515015</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>CCRO3</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.6762312084692135</v>
-      </c>
       <c r="C11" t="n">
-        <v>0.3768746980068381</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.5058983714304741</v>
+        <v>0.1268589877536298</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>0.2266828586969669</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>CIEL3</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>4.519051487847535</v>
-      </c>
       <c r="C12" t="n">
-        <v>2.99045838639813</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.172254909780443</v>
+        <v>0.03789587141510214</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>0.1970410825795586</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>CMIG4</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>1.687562416068914</v>
-      </c>
       <c r="C13" t="n">
-        <v>1.177964007285706</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.319639626191603</v>
+        <v>0.169301702145319</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>0.2592136411437456</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>CPFE3</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>5.173547914819859</v>
-      </c>
       <c r="C14" t="n">
-        <v>5.202275574029108</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4.536369311432757</v>
+        <v>0.2027827081837437</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>0.166509483670296</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>CPLE6</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>1.727673621231045</v>
-      </c>
       <c r="C15" t="n">
-        <v>1.695264676901212</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.9688692100194199</v>
+        <v>0.1565975174582709</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>0.1695913377939266</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>CSAN3</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>3.919719913723607</v>
-      </c>
       <c r="C16" t="n">
-        <v>2.360359712166689</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4.58265830031984</v>
+        <v>0.1525678677442348</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>0.2634793747224723</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>CSNA3</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.378126878686791</v>
-      </c>
       <c r="C17" t="n">
-        <v>0.3787863572135114</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.2907228166700511</v>
+        <v>0.2076185418339254</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>0.1704522493615885</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>CYRE3</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>3.22803565405018</v>
-      </c>
       <c r="C18" t="n">
-        <v>5.456382934439072</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.611943570548191</v>
+        <v>0.1573949598970621</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>0.3161459513656608</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>EGIE3</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>1.876768960655764</v>
-      </c>
       <c r="C19" t="n">
-        <v>1.527568133256509</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.738709331790518</v>
+        <v>0.1770197642627843</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>0.2483248126345014</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>ELET3</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>3.164674871431571</v>
-      </c>
       <c r="C20" t="n">
-        <v>3.018281522408453</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.930639680937619</v>
+        <v>0.1821570586726609</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>0.234030514687753</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>ELET6</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>1.594126474306029</v>
-      </c>
       <c r="C21" t="n">
-        <v>1.032803073043195</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.477811418159573</v>
+        <v>0.1955454295224062</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>0.03073567086945529</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>EMBR3</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>3.027917526796366</v>
-      </c>
       <c r="C22" t="n">
-        <v>3.478872048806926</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3.215749409271456</v>
+        <v>0.02399241503235133</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>0.2750460185572445</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>ENBR3</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>2.042897505383151</v>
-      </c>
       <c r="C23" t="n">
-        <v>1.43701965049528</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.391199576497189</v>
+        <v>0.1906628364060051</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>0.1992394641760818</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>ENEV3</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>2.37445039627526</v>
-      </c>
       <c r="C24" t="n">
-        <v>1.19650665947692</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2.011901794941404</v>
+        <v>0.1399578594598889</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>0.33359316819331</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>ENGI11</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0.9456865731573563</v>
-      </c>
       <c r="C25" t="n">
-        <v>0.990506637446177</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.33815906730838</v>
+        <v>0.2362908292053006</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>0.16629235796405</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>EQTL3</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.9703992449352996</v>
-      </c>
       <c r="C26" t="n">
-        <v>1.280584269522445</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1.805992874813067</v>
+        <v>0.1672118337627194</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>0.2517119712788431</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>EZTC3</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>1.152445687539157</v>
-      </c>
       <c r="C27" t="n">
-        <v>1.197393725497073</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1.325370336939987</v>
+        <v>0.1974351506436026</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>0.06424045817575294</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>FLRY3</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>10.76619870124993</v>
-      </c>
       <c r="C28" t="n">
-        <v>23.81361764696969</v>
-      </c>
-      <c r="D28" t="n">
-        <v>33.44406694016342</v>
+        <v>0.08432474347796154</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>0.1182905553009316</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>GGBR4</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>0.82440439305277</v>
-      </c>
       <c r="C29" t="n">
-        <v>0.825747179926358</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.8366264369050367</v>
+        <v>0.03565732006650629</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>0.0557604230730491</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>GOAU4</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>1.149167724577341</v>
-      </c>
       <c r="C30" t="n">
-        <v>0.7522273409429178</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.189887053180659</v>
+        <v>0.02598432641168953</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>0.2268201588431907</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>GOLL4</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>19.10142316340527</v>
-      </c>
       <c r="C31" t="n">
-        <v>11.6203662521847</v>
-      </c>
-      <c r="D31" t="n">
-        <v>18.18743267936266</v>
+        <v>0.1539279536200242</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>0.1409932609689554</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>HYPE3</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>6.72365918894882</v>
-      </c>
       <c r="C32" t="n">
-        <v>4.56608516478746</v>
-      </c>
-      <c r="D32" t="n">
-        <v>7.960705044104467</v>
+        <v>0.09693599691653057</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>0.1532241998651414</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>ITSA4</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>3.437293638678678</v>
-      </c>
       <c r="C33" t="n">
-        <v>1.416714150173774</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2.200482525829164</v>
+        <v>0.1295800479432017</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>0.1583553968000731</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>ITUB4</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>1.00332948046419</v>
-      </c>
       <c r="C34" t="n">
-        <v>0.8893020227781845</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.7297994675234439</v>
+        <v>0.1672730008648733</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>0.3284322796962125</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>JBSS3</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>6.895728186389644</v>
-      </c>
       <c r="C35" t="n">
-        <v>5.488758505356157</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3.373295204746435</v>
+        <v>0.1803151384921186</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>0.1889063236527561</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>JHSF3</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>2.93478399110636</v>
-      </c>
       <c r="C36" t="n">
-        <v>1.922490522522923</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1.365149524004628</v>
+        <v>0.1213025952051489</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>0.2928339491397336</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>LREN3</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>135.3988986313506</v>
-      </c>
       <c r="C37" t="n">
-        <v>31.92463977611186</v>
-      </c>
-      <c r="D37" t="n">
-        <v>187.0497385553903</v>
+        <v>0.2015250889330828</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>0.1129178336393936</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>MRFG3</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>0.9830395443369578</v>
-      </c>
       <c r="C38" t="n">
-        <v>0.8831393904127214</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.9617756412945563</v>
+        <v>0.02610563189218858</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>0.1660288171071225</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>MRVE3</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>0.9650530814356546</v>
-      </c>
       <c r="C39" t="n">
-        <v>0.9493341690113636</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1.416886720233678</v>
+        <v>0.09605075413599871</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>0.2546320603781249</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>MULT3</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>0.8590291679034758</v>
-      </c>
       <c r="C40" t="n">
-        <v>1.949368828766358</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2.084998813805655</v>
+        <v>0.1022183625498115</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>0.1217986146529139</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>PETR3</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>2.72200325243235</v>
-      </c>
       <c r="C41" t="n">
-        <v>2.762094605197433</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2.107612189883528</v>
+        <v>0.202872710893119</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>0.2221415392067658</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>PETR4</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>10.33888012287351</v>
-      </c>
       <c r="C42" t="n">
-        <v>8.711253736065396</v>
-      </c>
-      <c r="D42" t="n">
-        <v>6.501209804904342</v>
+        <v>0.1832779493958114</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>0.1343555266733613</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>RADL3</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>0.755067930431257</v>
-      </c>
       <c r="C43" t="n">
-        <v>1.127619304917493</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1.355115657253125</v>
+        <v>0.03399174323073863</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>0.341939860973878</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>RENT3</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>1.907777350863188</v>
-      </c>
       <c r="C44" t="n">
-        <v>1.884638565984787</v>
-      </c>
-      <c r="D44" t="n">
-        <v>3.582436968796038</v>
+        <v>0.1575432651404513</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>0.2146988775040732</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>SANB11</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>1.848548176418056</v>
-      </c>
       <c r="C45" t="n">
-        <v>1.508973238795675</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.6777088645821362</v>
+        <v>0.1617109602025149</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>0.2106349923929024</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>SBSP3</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>2.106822709699832</v>
-      </c>
       <c r="C46" t="n">
-        <v>2.114072584040178</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1.736985272003263</v>
+        <v>0.1727729323409487</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>0.2317894499673803</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>TAEE11</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>1.06116812042113</v>
-      </c>
       <c r="C47" t="n">
-        <v>0.8893715342304562</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.8242919245811198</v>
+        <v>0.1730800985628821</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>0.03648730104118125</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>TIMS3</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>1.069314905850073</v>
-      </c>
       <c r="C48" t="n">
-        <v>0.6942370588564208</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.8617275911179817</v>
+        <v>0.06049331661980335</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>0.2064098923260201</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>TOTS3</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>0.3889545936601764</v>
-      </c>
       <c r="C49" t="n">
-        <v>0.3720089412170293</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.3966719635513545</v>
+        <v>0.1615109501268742</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>0.1596361879340043</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>UGPA3</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>1.163028771891459</v>
-      </c>
       <c r="C50" t="n">
-        <v>1.434244944059222</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.89796115638801</v>
+        <v>0.1016939840508344</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>0.08630460683045266</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>USIM5</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>0.7773075175873355</v>
-      </c>
       <c r="C51" t="n">
-        <v>0.5945785469634225</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.8559323156777188</v>
+        <v>0.06172275712956978</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>0.1402852986832847</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>VALE3</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0.5517025552658564</v>
-      </c>
       <c r="C52" t="n">
-        <v>0.3987935366726291</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.4835444679331564</v>
+        <v>0.1101440732685079</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>0.08581088459269653</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>VIVT3</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>1.588085539775801</v>
-      </c>
       <c r="C53" t="n">
-        <v>1.091018271064574</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1.224432321752801</v>
+        <v>0.1442882446734458</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>0.1407003154787516</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>WEGE3</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>1.471233480810347</v>
-      </c>
       <c r="C54" t="n">
-        <v>1.234606457689876</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1.853073860202892</v>
+        <v>0.07696662680052054</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>0.2336233069719443</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>YDUQ3</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>3.807463375458473</v>
-      </c>
       <c r="C55" t="n">
-        <v>3.860190548927524</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3.031618540402793</v>
+        <v>0.1500423673917453</v>
       </c>
     </row>
   </sheetData>
